--- a/medicine/Pharmacie/Stéarate_de_magnésium/Stéarate_de_magnésium.xlsx
+++ b/medicine/Pharmacie/Stéarate_de_magnésium/Stéarate_de_magnésium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>St%C3%A9arate_de_magn%C3%A9sium</t>
+          <t>Stéarate_de_magnésium</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le stéarate de magnésium (sin 470b) est un sel constitué de deux anions stéarate et d'un cation magnésium, de formule C36H70MgO4. Solide à température ambiante, il fond vers 88 °C et n'est pas soluble dans l'eau. On le trouve avec le stéarate de calcium dans la crasse de savon générée par l'action d'une eau dure sur un savon (s'il contient des stéarates).
